--- a/Nomic.xlsx
+++ b/Nomic.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Nomic-Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A9C4A7-A596-4F27-BF27-A78CBCFB0FC3}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96794A-AA2E-45B7-BFD9-41CD1446C83A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,23 +22,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
   <si>
     <t>Player Display Name</t>
   </si>
   <si>
-    <t>ZgH</t>
-  </si>
-  <si>
     <t>Player Username</t>
   </si>
   <si>
     <t>Player ID</t>
   </si>
   <si>
-    <t>259220635010596864</t>
-  </si>
-  <si>
     <t>Still Playing?</t>
   </si>
   <si>
@@ -81,10 +75,22 @@
     <t>Current Votes</t>
   </si>
   <si>
+    <t>Empty?</t>
+  </si>
+  <si>
     <t>Stat Rows</t>
   </si>
   <si>
-    <t>Empty?</t>
+    <t>Proposal Time</t>
+  </si>
+  <si>
+    <t>Voting Time</t>
+  </si>
+  <si>
+    <t>Yes Proportion</t>
+  </si>
+  <si>
+    <t>Current Logins</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -461,76 +467,60 @@
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
+      <c r="B1"/>
     </row>
     <row r="2" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
+      <c r="B2"/>
     </row>
     <row r="3" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="B3"/>
     </row>
     <row r="4" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
     </row>
     <row r="5" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B5"/>
     </row>
     <row r="6" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B8"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B9"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -542,7 +532,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -556,42 +546,31 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="A4"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
     <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -600,10 +579,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -613,15 +592,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -629,39 +608,71 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B14">
+        <v>86400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16">
         <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Nomic.xlsx
+++ b/Nomic.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Games\Nomic-Bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bots\Nomic-Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C96794A-AA2E-45B7-BFD9-41CD1446C83A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8DA747-583F-4895-867C-488B190052B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Player Display Name</t>
   </si>
@@ -33,9 +33,18 @@
     <t>Player ID</t>
   </si>
   <si>
+    <t>Points</t>
+  </si>
+  <si>
     <t>Still Playing?</t>
   </si>
   <si>
+    <t>Current Vote</t>
+  </si>
+  <si>
+    <t>Daily Login</t>
+  </si>
+  <si>
     <t>Stats</t>
   </si>
   <si>
@@ -51,6 +60,12 @@
     <t>Total Proposals</t>
   </si>
   <si>
+    <t>Total First Votes</t>
+  </si>
+  <si>
+    <t>Total Deciding Votes</t>
+  </si>
+  <si>
     <t>Turn</t>
   </si>
   <si>
@@ -63,6 +78,9 @@
     <t>Passed?</t>
   </si>
   <si>
+    <t>End Con</t>
+  </si>
+  <si>
     <t>Player Number</t>
   </si>
   <si>
@@ -72,13 +90,10 @@
     <t>State</t>
   </si>
   <si>
-    <t>Current Votes</t>
-  </si>
-  <si>
-    <t>Empty?</t>
-  </si>
-  <si>
-    <t>Stat Rows</t>
+    <t>First Vote</t>
+  </si>
+  <si>
+    <t>Last Vote</t>
   </si>
   <si>
     <t>Proposal Time</t>
@@ -88,9 +103,6 @@
   </si>
   <si>
     <t>Yes Proportion</t>
-  </si>
-  <si>
-    <t>Current Logins</t>
   </si>
 </sst>
 </file>
@@ -450,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,41 +498,69 @@
     </row>
     <row r="5" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5"/>
+    </row>
+    <row r="6" spans="1:2" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5"/>
-    </row>
-    <row r="6" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3"/>
     </row>
     <row r="7" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="B8"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="9" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B11"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -529,49 +569,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4"/>
-      <c r="C4"/>
-      <c r="D4"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5"/>
-      <c r="C5"/>
-      <c r="D5"/>
-    </row>
-    <row r="6" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3"/>
+      <c r="B3"/>
+      <c r="C3"/>
+    </row>
+    <row r="4" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9" s="2"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J10" s="2"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11" s="2"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -579,10 +630,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -592,7 +643,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -600,7 +651,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -608,70 +659,55 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="B7" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>86400</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13">
         <v>86400</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B14">
-        <v>86400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B16">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
         <v>1</v>
       </c>
     </row>

--- a/Nomic.xlsx
+++ b/Nomic.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bots\Nomic-Bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8DA747-583F-4895-867C-488B190052B1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F50C67-2355-4568-82E0-66799C131BAE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1440" yWindow="2580" windowWidth="17280" windowHeight="9420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Players" sheetId="1" r:id="rId1"/>
@@ -633,7 +633,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -662,7 +662,7 @@
         <v>20</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">

--- a/Nomic.xlsx
+++ b/Nomic.xlsx
@@ -143,16 +143,18 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -453,42 +455,39 @@
   <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="20.109375"/>
-    <col customWidth="1" max="4" min="2" style="4" width="12.109375"/>
-    <col customWidth="1" max="9" min="5" style="4" width="12.109375"/>
-    <col customWidth="1" max="10" min="10" style="4" width="12.109375"/>
-    <col customWidth="1" max="20" min="11" style="4" width="12.109375"/>
+    <col customWidth="1" max="20" min="2" style="4" width="12.109375"/>
   </cols>
   <sheetData>
     <row customHeight="1" ht="15.6" r="1" s="4">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t>Player Display Name</t>
+          <t>Player Name</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>HummingBee | Aria | She/Her</t>
+          <t>HummingBee</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Zac</t>
+          <t>Kiwi</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Wice || Petew uwu</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>Outgwid | she/her</t>
+          <t>Outgrid</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
@@ -498,47 +497,47 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>ToasterB | Joseph</t>
+          <t>ToasterB</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Sevnet</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Xiong_D_Kuma</t>
+          <t>Kuma</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>UndeathMetal | He/They</t>
+          <t>UndeathMetal</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>Mentawist | Bhawgava</t>
+          <t>Mentalist</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Jamie</t>
+          <t>Lipton</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Thunderbird</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>realcateye | Cat</t>
+          <t>Realcateye</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Travesty | He/They</t>
+          <t>Travesty</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
@@ -548,22 +547,22 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>HappyNewYeesh || Ayeesha</t>
+          <t>Yeesh</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>Sheepish | Emily</t>
+          <t>Sheepish</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>King Platapus | Nathan</t>
+          <t>King Platapus</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>Melo | she/her</t>
+          <t>Melo</t>
         </is>
       </c>
     </row>
@@ -640,7 +639,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>PARTYPOISON</t>
+          <t>wayward</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -805,7 +804,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="b">
         <v>1</v>
@@ -844,62 +843,62 @@
           <t>Last Message</t>
         </is>
       </c>
-      <c r="B6" s="16" t="n">
-        <v>43922.79375396144</v>
-      </c>
-      <c r="C6" s="16" t="n">
-        <v>43922.50591435185</v>
-      </c>
-      <c r="D6" s="16" t="n">
-        <v>43922.59549768519</v>
-      </c>
-      <c r="E6" s="16" t="n">
-        <v>43922.61008101852</v>
-      </c>
-      <c r="F6" s="16" t="n">
-        <v>43922.53508101852</v>
-      </c>
-      <c r="G6" s="16" t="n">
-        <v>43922.53230324074</v>
-      </c>
-      <c r="H6" s="16" t="n">
-        <v>43922.50591435185</v>
-      </c>
-      <c r="I6" s="16" t="n">
+      <c r="B6" s="13" t="n">
+        <v>43931.08071832073</v>
+      </c>
+      <c r="C6" s="13" t="n">
+        <v>43930.73059961732</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>43930.7838577714</v>
+      </c>
+      <c r="E6" s="13" t="n">
+        <v>43930.76625446408</v>
+      </c>
+      <c r="F6" s="13" t="n">
+        <v>43930.7834052686</v>
+      </c>
+      <c r="G6" s="13" t="n">
+        <v>43930.76401516177</v>
+      </c>
+      <c r="H6" s="13" t="n">
+        <v>43928.83637651578</v>
+      </c>
+      <c r="I6" s="13" t="n">
         <v>43922.59758101852</v>
       </c>
-      <c r="J6" s="16" t="n">
-        <v>43922.52605324074</v>
-      </c>
-      <c r="K6" s="16" t="n">
-        <v>43922.58369212963</v>
-      </c>
-      <c r="L6" s="16" t="n">
-        <v>43922.58230324074</v>
-      </c>
-      <c r="M6" s="16" t="n">
-        <v>43922.54063657407</v>
-      </c>
-      <c r="N6" s="16" t="n">
-        <v>43922.75610113703</v>
-      </c>
-      <c r="O6" s="16" t="n">
-        <v>43922.76207976044</v>
-      </c>
-      <c r="P6" s="16" t="n">
+      <c r="J6" s="13" t="n">
+        <v>43930.83546035166</v>
+      </c>
+      <c r="K6" s="13" t="n">
+        <v>43930.73022517501</v>
+      </c>
+      <c r="L6" s="13" t="n">
+        <v>43930.77580448762</v>
+      </c>
+      <c r="M6" s="13" t="n">
+        <v>43930.82408426917</v>
+      </c>
+      <c r="N6" s="13" t="n">
+        <v>43930.73400248589</v>
+      </c>
+      <c r="O6" s="13" t="n">
+        <v>43929.74655898</v>
+      </c>
+      <c r="P6" s="13" t="n">
         <v>43917.74341435185</v>
       </c>
-      <c r="Q6" s="16" t="n">
-        <v>43922.51563657408</v>
-      </c>
-      <c r="R6" s="16" t="n">
-        <v>43922.5066087963</v>
-      </c>
-      <c r="S6" s="16" t="n">
-        <v>43922.59271990741</v>
-      </c>
-      <c r="T6" s="16" t="n">
-        <v>43921.87674768519</v>
+      <c r="Q6" s="13" t="n">
+        <v>43930.73045180638</v>
+      </c>
+      <c r="R6" s="13" t="n">
+        <v>43930.75334761043</v>
+      </c>
+      <c r="S6" s="13" t="n">
+        <v>43929.76516309773</v>
+      </c>
+      <c r="T6" s="13" t="n">
+        <v>43930.76725111798</v>
       </c>
     </row>
     <row customHeight="1" ht="15.6" r="7" s="4">
@@ -933,13 +932,13 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>5</v>
+        <v>-5</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -960,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -984,43 +983,43 @@
         <v>1</v>
       </c>
       <c r="C9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" t="b">
         <v>0</v>
       </c>
       <c r="N9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" t="b">
         <v>0</v>
@@ -1032,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9" t="b">
         <v>0</v>
@@ -1055,22 +1054,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>202</v>
+        <v>688</v>
       </c>
       <c r="C12" t="n">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="D12" t="n">
-        <v>113</v>
+        <v>214</v>
       </c>
       <c r="E12" t="n">
-        <v>104</v>
+        <v>199</v>
       </c>
       <c r="F12" t="n">
-        <v>96</v>
+        <v>301</v>
       </c>
       <c r="G12" t="n">
-        <v>102</v>
+        <v>319</v>
       </c>
       <c r="H12" t="n">
         <v>6</v>
@@ -1079,37 +1078,37 @@
         <v>7</v>
       </c>
       <c r="J12" t="n">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>54</v>
+        <v>363</v>
       </c>
       <c r="L12" t="n">
-        <v>68</v>
+        <v>393</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>4</v>
+        <v>179</v>
       </c>
       <c r="O12" t="n">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="R12" t="n">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="S12" t="n">
-        <v>44</v>
+        <v>127</v>
       </c>
       <c r="T12" t="n">
-        <v>14</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13">
@@ -1119,61 +1118,61 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="K13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="S13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1183,61 +1182,61 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>10</v>
+      </c>
+      <c r="C14" t="n">
+        <v>10</v>
+      </c>
+      <c r="D14" t="n">
+        <v>8</v>
+      </c>
+      <c r="E14" t="n">
+        <v>8</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="n">
+        <v>9</v>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="C14" t="n">
+      <c r="I14" t="n">
+        <v>3</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>10</v>
+      </c>
+      <c r="M14" t="n">
         <v>2</v>
       </c>
-      <c r="D14" t="n">
+      <c r="N14" t="n">
+        <v>6</v>
+      </c>
+      <c r="O14" t="n">
+        <v>7</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
         <v>2</v>
       </c>
-      <c r="E14" t="n">
-        <v>2</v>
-      </c>
-      <c r="F14" t="n">
-        <v>2</v>
-      </c>
-      <c r="G14" t="n">
-        <v>2</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>1</v>
-      </c>
-      <c r="O14" t="n">
-        <v>2</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1</v>
-      </c>
       <c r="R14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
@@ -1271,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -1295,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -1311,22 +1310,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1338,10 +1337,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
@@ -1375,7 +1374,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1384,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1393,7 +1392,7 @@
         <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>1</v>
@@ -1402,13 +1401,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -1433,7 +1432,7 @@
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="15" t="n"/>
+      <c r="B20" s="12" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1446,10 +1445,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X12"/>
+  <dimension ref="A1:X19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
@@ -1464,27 +1463,27 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>Player Display Name</t>
+          <t>Player Name</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>HummingBee | Aria | She/Her</t>
+          <t>HummingBee</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>Zac</t>
+          <t>Kiwi</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>Wice || Petew uwu</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>Outgwid | she/her</t>
+          <t>Outgrid</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
@@ -1494,47 +1493,47 @@
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>ToasterB | Joseph</t>
+          <t>ToasterB</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Sevnet</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>Xiong_D_Kuma</t>
+          <t>Kuma</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>UndeathMetal | He/They</t>
+          <t>UndeathMetal</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>Mentawist | Bhawgava</t>
+          <t>Mentalist</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>Jamie</t>
+          <t>Lipton</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>Sam</t>
+          <t>Thunderbird</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>realcateye | Cat</t>
+          <t>Realcateye</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>Travesty | He/They</t>
+          <t>Travesty</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
@@ -1544,22 +1543,22 @@
       </c>
       <c r="U1" t="inlineStr">
         <is>
-          <t>HappyNewYeesh || Ayeesha</t>
+          <t>Yeesh</t>
         </is>
       </c>
       <c r="V1" t="inlineStr">
         <is>
-          <t>Sheepish | Emily</t>
+          <t>Sheepish</t>
         </is>
       </c>
       <c r="W1" t="inlineStr">
         <is>
-          <t>King Platapus | Nathan</t>
+          <t>King Platapus</t>
         </is>
       </c>
       <c r="X1" t="inlineStr">
         <is>
-          <t>Melo | she/her</t>
+          <t>Melo</t>
         </is>
       </c>
     </row>
@@ -1601,7 +1600,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>HummingBee | Aria | She/Her</t>
+          <t>HummingBee</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -1717,7 +1716,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Zac</t>
+          <t>Kiwi</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -1833,7 +1832,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Wice || Petew uwu</t>
+          <t>Rice</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1949,7 +1948,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Outgwid | she/her</t>
+          <t>Outgrid</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -2181,7 +2180,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ToasterB | Joseph</t>
+          <t>ToasterB</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -2297,7 +2296,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Steven</t>
+          <t>Sevnet</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -2403,13 +2402,1069 @@
       </c>
     </row>
     <row r="10">
-      <c r="K10" s="2" t="n"/>
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>385682387511541760</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>UndeathMetal</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="K11" s="2" t="n"/>
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>226145506730967051</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Mentalist</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>1,13</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1,15</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>2,11</t>
+        </is>
+      </c>
+      <c r="Q11" t="inlineStr">
+        <is>
+          <t>1,14</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="X11" t="inlineStr">
+        <is>
+          <t>2,10</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="K12" s="2" t="n"/>
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>254489242263093248</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Lipton</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2,2</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="X12" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="13" s="4">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>280617649300570123</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Thunderbird</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>1,10</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="X13" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="14" s="4">
+      <c r="A14" t="n">
+        <v>11</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>688665453546962964</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Realcateye</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>2,6</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>2,5</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="X14" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="15" s="4">
+      <c r="A15" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>620180291197075467</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Travesty</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>1,10</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="X15" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>692264423406174289</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Yeesh</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="17" s="4">
+      <c r="A17" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>115900946722193409</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Sheepish</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>1,10</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>2,12</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="18" s="4">
+      <c r="A18" t="n">
+        <v>15</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>162427580031434752</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>King Platapus</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>2,7</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>2,8</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>2,0</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>2,4</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="19" s="4">
+      <c r="A19" t="n">
+        <v>16</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>170430609716543490</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Melo</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1,1</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1,4</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1,6</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>1,11</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>1,8</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>1,10</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1,2</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1,0</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>1,12</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>-2,</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>1,3</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>1,9</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>0,</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>1,5</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -2423,10 +3478,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
@@ -2451,7 +3506,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2461,7 +3516,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
@@ -2527,7 +3582,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.75,1</t>
+          <t>0.75,0.85</t>
         </is>
       </c>
     </row>
@@ -2539,7 +3594,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0.75,1</t>
+          <t>0.75,0.85</t>
         </is>
       </c>
     </row>
@@ -2551,7 +3606,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -2562,7 +3617,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2571,12 +3626,22 @@
           <t>TimerEnd</t>
         </is>
       </c>
-      <c r="B17" s="15" t="n">
-        <v>43923.6410480011</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="inlineStr">
+      <c r="B17" s="12" t="n">
+        <v>43931.82445956271</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>Ready</t>
+        </is>
+      </c>
+      <c r="B18" s="12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>SummaryMsgID</t>
         </is>
@@ -2593,10 +3658,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="O49" sqref="O49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
@@ -3003,7 +4068,7 @@
       </c>
     </row>
     <row customHeight="1" ht="409.6" r="34" s="4">
-      <c r="A34" s="12" t="n">
+      <c r="A34" s="14" t="n">
         <v>304</v>
       </c>
       <c r="B34" s="10" t="inlineStr">
@@ -3020,18 +4085,45 @@
       </c>
     </row>
     <row customHeight="1" ht="198.6" r="35" s="4">
-      <c r="A35" s="12" t="n">
+      <c r="A35" s="14" t="n">
         <v>306</v>
       </c>
-      <c r="B35" s="14" t="inlineStr">
+      <c r="B35" s="11" t="inlineStr">
         <is>
           <t>Title: Inactivity
 If any player has failed to vote in 3 consecutive proposals AND at least 72 hours have passed since the player last posted a message to the discord server (in any channel), their @player role must be removed and replaced by the @inactiveplayer role by the historian. Any player may voluntarily remove their @player role and replace it with the @inactiveplayer role by using the ~cryosleep command in the #bot-commands channel. Anyone with the @inactiveplayer role retains their slot in the turn order, but if the turn would be passed to them they are skipped and the turn is passed to the player immediately following them in the turn order. Anyone with the @inactiveplayer role may use the ~resurrect command in the #bot-commands channel to replace their @inactiveplayer role with an @player role at any time. Any other action taken by anyone with the @inactiveplayer role is wholly null and void. Anyone with the @inactiveplayer role must comply with this rule.</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="B36" s="13" t="n"/>
+    <row customHeight="1" ht="93" r="36" s="4">
+      <c r="A36" s="14" t="n">
+        <v>309</v>
+      </c>
+      <c r="B36" s="16" t="inlineStr">
+        <is>
+          <t>Title: Democracy
+This rule takes precedence over rules 204 and 206. 
+Points cannot be gained as a result of:
+1. Making proposals
+2. Having your proposals succeed or fail
+3. Voting yes or no on proposals</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="15" t="n"/>
+    </row>
+    <row r="39">
+      <c r="B39" s="15" t="n"/>
+    </row>
+    <row r="40">
+      <c r="B40" s="15" t="n"/>
+    </row>
+    <row r="41">
+      <c r="B41" s="15" t="n"/>
+    </row>
+    <row r="42">
+      <c r="B42" s="15" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/Nomic.xlsx
+++ b/Nomic.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="13176" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Players" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Turns" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Misc" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Rules" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Pool" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -21,7 +22,7 @@
   <numFmts count="1">
     <numFmt formatCode="yyyy\-mm\-dd\ h:mm:ss" numFmtId="164"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -35,12 +36,6 @@
       <color theme="1"/>
       <sz val="12"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -64,6 +59,19 @@
       <name val="Arial"/>
       <family val="2"/>
       <sz val="10"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="14"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,38 +129,44 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="3" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0"/>
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="0" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -454,18 +468,20 @@
   </sheetPr>
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="20.109375"/>
-    <col customWidth="1" max="20" min="2" style="4" width="12.109375"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="12" width="20.109375"/>
+    <col customWidth="1" max="20" min="2" style="13" width="12.109375"/>
+    <col customWidth="1" max="32" min="21" style="13" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="33" style="13" width="8.88671875"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="15.6" r="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="1" s="13">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>Player Name</t>
         </is>
@@ -566,8 +582,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="2" s="4">
-      <c r="A2" s="3" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="2" s="13">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>Player Username</t>
         </is>
@@ -609,7 +625,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Xiong_D_Kuma</t>
+          <t>Anti Natalist</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -639,7 +655,7 @@
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>wayward</t>
+          <t>swagesty</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
@@ -649,7 +665,7 @@
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Ayu || Yeesh</t>
+          <t>HappyNewYeesh</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
@@ -668,8 +684,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="3" s="4">
-      <c r="A3" s="3" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="3" s="13">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>Player ID</t>
         </is>
@@ -770,11 +786,9 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="4" s="4">
-      <c r="A4" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="5" s="4">
-      <c r="A5" s="3" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="4" s="13"/>
+    <row customHeight="1" ht="15.6" r="5" s="13">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>Active</t>
         </is>
@@ -783,7 +797,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -816,16 +830,16 @@
         <v>1</v>
       </c>
       <c r="N5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
       </c>
       <c r="Q5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="b">
         <v>1</v>
@@ -837,72 +851,72 @@
         <v>1</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="6" s="4">
-      <c r="A6" s="3" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="6" s="13">
+      <c r="A6" s="12" t="inlineStr">
         <is>
           <t>Last Message</t>
         </is>
       </c>
-      <c r="B6" s="13" t="n">
-        <v>43931.08071832073</v>
-      </c>
-      <c r="C6" s="13" t="n">
-        <v>43930.73059961732</v>
-      </c>
-      <c r="D6" s="13" t="n">
-        <v>43930.7838577714</v>
-      </c>
-      <c r="E6" s="13" t="n">
-        <v>43930.76625446408</v>
-      </c>
-      <c r="F6" s="13" t="n">
-        <v>43930.7834052686</v>
-      </c>
-      <c r="G6" s="13" t="n">
-        <v>43930.76401516177</v>
-      </c>
-      <c r="H6" s="13" t="n">
-        <v>43928.83637651578</v>
-      </c>
-      <c r="I6" s="13" t="n">
+      <c r="B6" s="14" t="n">
+        <v>43999.53720311229</v>
+      </c>
+      <c r="C6" s="14" t="n">
+        <v>43962.75979616281</v>
+      </c>
+      <c r="D6" s="14" t="n">
+        <v>43971.92353456322</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>43947.41973055025</v>
+      </c>
+      <c r="F6" s="14" t="n">
+        <v>43977.64595427428</v>
+      </c>
+      <c r="G6" s="14" t="n">
+        <v>43972.02380945787</v>
+      </c>
+      <c r="H6" s="14" t="n">
+        <v>43950.86465635935</v>
+      </c>
+      <c r="I6" s="14" t="n">
         <v>43922.59758101852</v>
       </c>
-      <c r="J6" s="13" t="n">
-        <v>43930.83546035166</v>
-      </c>
-      <c r="K6" s="13" t="n">
-        <v>43930.73022517501</v>
-      </c>
-      <c r="L6" s="13" t="n">
-        <v>43930.77580448762</v>
-      </c>
-      <c r="M6" s="13" t="n">
-        <v>43930.82408426917</v>
-      </c>
-      <c r="N6" s="13" t="n">
-        <v>43930.73400248589</v>
-      </c>
-      <c r="O6" s="13" t="n">
+      <c r="J6" s="14" t="n">
+        <v>43934.98583651784</v>
+      </c>
+      <c r="K6" s="14" t="n">
+        <v>43991.9305222863</v>
+      </c>
+      <c r="L6" s="14" t="n">
+        <v>43987.64686705869</v>
+      </c>
+      <c r="M6" s="14" t="n">
+        <v>43946.7442432745</v>
+      </c>
+      <c r="N6" s="14" t="n">
+        <v>43941.00299263777</v>
+      </c>
+      <c r="O6" s="14" t="n">
         <v>43929.74655898</v>
       </c>
-      <c r="P6" s="13" t="n">
+      <c r="P6" s="14" t="n">
         <v>43917.74341435185</v>
       </c>
-      <c r="Q6" s="13" t="n">
-        <v>43930.73045180638</v>
-      </c>
-      <c r="R6" s="13" t="n">
-        <v>43930.75334761043</v>
-      </c>
-      <c r="S6" s="13" t="n">
-        <v>43929.76516309773</v>
-      </c>
-      <c r="T6" s="13" t="n">
-        <v>43930.76725111798</v>
-      </c>
-    </row>
-    <row customHeight="1" ht="15.6" r="7" s="4">
-      <c r="A7" s="3" t="inlineStr">
+      <c r="Q6" s="14" t="n">
+        <v>43932.99618140368</v>
+      </c>
+      <c r="R6" s="14" t="n">
+        <v>43994.88912035755</v>
+      </c>
+      <c r="S6" s="14" t="n">
+        <v>43961.57684280205</v>
+      </c>
+      <c r="T6" s="14" t="n">
+        <v>43977.77681631125</v>
+      </c>
+    </row>
+    <row customHeight="1" ht="15.6" r="7" s="13">
+      <c r="A7" s="12" t="inlineStr">
         <is>
           <t>Points</t>
         </is>
@@ -965,16 +979,15 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="8" s="4">
-      <c r="A8" s="3" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="8" s="13">
+      <c r="A8" s="12" t="inlineStr">
         <is>
           <t>Current Vote</t>
         </is>
       </c>
-      <c r="P8" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="9" s="4">
-      <c r="A9" s="3" t="inlineStr">
+    </row>
+    <row customHeight="1" ht="15.6" r="9" s="13">
+      <c r="A9" s="12" t="inlineStr">
         <is>
           <t>Daily Login</t>
         </is>
@@ -1037,42 +1050,40 @@
         <v>0</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.6" r="10" s="4">
-      <c r="A10" s="3" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.6" r="11" s="4">
-      <c r="A11" s="3" t="inlineStr">
+    <row customHeight="1" ht="15.6" r="10" s="13"/>
+    <row customHeight="1" ht="15.6" r="11" s="13">
+      <c r="A11" s="12" t="inlineStr">
         <is>
           <t>Stats</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="12" t="inlineStr">
         <is>
           <t>Total Messages</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>688</v>
+        <v>826</v>
       </c>
       <c r="C12" t="n">
-        <v>211</v>
+        <v>270</v>
       </c>
       <c r="D12" t="n">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="E12" t="n">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="F12" t="n">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="G12" t="n">
-        <v>319</v>
+        <v>385</v>
       </c>
       <c r="H12" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I12" t="n">
         <v>7</v>
@@ -1081,16 +1092,16 @@
         <v>50</v>
       </c>
       <c r="K12" t="n">
-        <v>363</v>
+        <v>533</v>
       </c>
       <c r="L12" t="n">
-        <v>393</v>
+        <v>582</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="n">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="O12" t="n">
         <v>55</v>
@@ -1099,126 +1110,126 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="R12" t="n">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="S12" t="n">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="T12" t="n">
-        <v>94</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+      <c r="A13" s="12" t="inlineStr">
         <is>
           <t>Total Days Playing</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="E13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="F13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="G13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="H13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="I13" t="n">
         <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="K13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="L13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="M13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="O13" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P13" t="n">
         <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="R13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="T13" t="n">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+      <c r="A14" s="12" t="inlineStr">
         <is>
           <t>Total Days Online</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="C14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D14" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E14" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F14" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="G14" t="n">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I14" t="n">
         <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="L14" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
         <v>7</v>
@@ -1227,32 +1238,32 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6</v>
+      </c>
+      <c r="S14" t="n">
+        <v>18</v>
+      </c>
+      <c r="T14" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="12" t="inlineStr">
+        <is>
+          <t>Total Proposals</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" t="n">
         <v>2</v>
       </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
-      <c r="S14" t="n">
-        <v>7</v>
-      </c>
-      <c r="T14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Total Proposals</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
       <c r="D15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -1264,7 +1275,7 @@
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1273,10 +1284,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
@@ -1297,23 +1308,23 @@
         <v>1</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+      <c r="A16" s="12" t="inlineStr">
         <is>
           <t>Total First Votes</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1325,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1337,38 +1348,38 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>4</v>
+      </c>
+      <c r="L16" t="n">
+        <v>5</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
         <v>2</v>
       </c>
-      <c r="L16" t="n">
-        <v>3</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
       <c r="S16" t="n">
         <v>1</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+      <c r="A17" s="12" t="inlineStr">
         <is>
           <t>Total Deciding Votes</t>
         </is>
@@ -1383,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1422,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -1431,8 +1442,136 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18">
+      <c r="A18" s="12" t="inlineStr">
+        <is>
+          <t>bruh</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="12" t="inlineStr">
+        <is>
+          <t>Roulette</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="L19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T19" t="n">
+        <v>-1</v>
+      </c>
+    </row>
     <row r="20">
-      <c r="B20" s="12" t="n"/>
+      <c r="B20" s="15" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1445,23 +1584,23 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X19"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="20.109375"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="4" width="11.77734375"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="4" width="21.44140625"/>
-    <col customWidth="1" max="6" min="6" style="4" width="8.88671875"/>
-    <col customWidth="1" max="14" min="14" style="4" width="8.88671875"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="13" width="20.109375"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="13" width="11.77734375"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="13" width="21.44140625"/>
+    <col customWidth="1" max="26" min="4" style="13" width="8.88671875"/>
+    <col customWidth="1" max="16384" min="27" style="13" width="8.88671875"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Player Name</t>
         </is>
@@ -1563,7 +1702,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Turn</t>
         </is>
@@ -1589,8 +1728,8 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="3" s="4">
-      <c r="A3" s="2" t="n">
+    <row customHeight="1" ht="14.4" r="3" s="13">
+      <c r="A3" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1611,102 +1750,102 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,7,</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,11,</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,12,</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,10,</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0,</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="4" s="4">
-      <c r="A4" s="2" t="n">
+          <t>0,,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="4" s="13">
+      <c r="A4" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1727,101 +1866,101 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,12,</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,10,</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,13,</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,7,</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>1,11</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="5" s="4">
+          <t>1,11,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="5" s="13">
       <c r="A5" t="n">
         <v>2</v>
       </c>
@@ -1843,101 +1982,101 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,7,</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,13,</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>1,17,</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,14,</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,15,</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,11,</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,12,</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,10,</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>1,16</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="6" s="4">
+          <t>1,16,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="6" s="13">
       <c r="A6" t="n">
         <v>3</v>
       </c>
@@ -1959,101 +2098,101 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,16,</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,7,</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,12,</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2,10</t>
+          <t>2,10,</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,14,</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,15,</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,11,</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,13,</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>0,</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="7" s="4">
+          <t>0,,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="7" s="13">
       <c r="A7" t="n">
         <v>4</v>
       </c>
@@ -2075,101 +2214,101 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,4,</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,12,</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,10,</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,13,</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,11,</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>2,14</t>
+          <t>2,14,</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,8,</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>1,7</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="8" s="4">
+          <t>1,7,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="8" s="13">
       <c r="A8" t="n">
         <v>5</v>
       </c>
@@ -2191,101 +2330,101 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>2,9</t>
+          <t>2,9,</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>1,16</t>
+          <t>1,16,</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,11,</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,14,</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2,10</t>
+          <t>2,10,</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,13,</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,15,</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,12,</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,7,</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>1,6</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
+          <t>1,6,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="9" s="13" thickBot="1">
       <c r="A9" t="n">
         <v>6</v>
       </c>
@@ -2307,101 +2446,101 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>1,11</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
+          <t>1,11,</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2,13</t>
+          <t>2,13,</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,12,</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,10,</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,7,</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0,</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
+          <t>0,,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="10" s="13" thickBot="1">
       <c r="A10" t="n">
         <v>7</v>
       </c>
@@ -2421,99 +2560,99 @@
       <c r="E10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>1,0</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>-2,</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>2,2</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr">
-        <is>
-          <t>-2,</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>0,</t>
+      <c r="F10" s="17" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="G10" s="17" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="H10" s="17" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I10" s="17" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J10" s="17" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="K10" s="17" t="inlineStr">
+        <is>
+          <t>1,0,</t>
+        </is>
+      </c>
+      <c r="L10" s="17" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="M10" s="18" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N10" s="17" t="inlineStr">
+        <is>
+          <t>1,1,</t>
+        </is>
+      </c>
+      <c r="O10" s="17" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="P10" s="17" t="inlineStr">
+        <is>
+          <t>2,2,</t>
+        </is>
+      </c>
+      <c r="Q10" s="17" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R10" s="17" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="S10" s="17" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="T10" s="18" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U10" s="18" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="V10" s="18" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="W10" s="18" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="X10" s="18" t="inlineStr">
+        <is>
+          <t>0,,</t>
         </is>
       </c>
     </row>
@@ -2539,97 +2678,97 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>2,12</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
+          <t>2,12,</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,7,</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>1,13</t>
+          <t>1,13,</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>1,15,</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>2,11,</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>1,14</t>
+          <t>1,14,</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>2,10</t>
+          <t>2,10,</t>
         </is>
       </c>
     </row>
@@ -2655,101 +2794,101 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,2,</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,0,</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,4,</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>0,</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>2,1,</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>2,3,</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>0,</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="13" s="4">
+          <t>0,,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="13" s="13">
       <c r="A13" t="n">
         <v>10</v>
       </c>
@@ -2771,101 +2910,101 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,12,</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,10,</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,11,</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,7,</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>1,6</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="14" s="4">
+          <t>1,6,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="14" s="13">
       <c r="A14" t="n">
         <v>11</v>
       </c>
@@ -2887,101 +3026,101 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,7,</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>2,6</t>
+          <t>2,6,</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,4,</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>2,5,</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,0,</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>0,</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="15" s="4">
+          <t>0,,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="15" s="13">
       <c r="A15" t="n">
         <v>12</v>
       </c>
@@ -3003,102 +3142,102 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,7,</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,10,</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,12,</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,11,</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="A16" t="n">
         <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
@@ -3118,7 +3257,7 @@
         <v>3</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="17" s="4">
+    <row customHeight="1" ht="14.4" r="17" s="13">
       <c r="A17" t="n">
         <v>14</v>
       </c>
@@ -3140,101 +3279,101 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>1,5,</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,10,</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,11,</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,12,</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U17" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,11,</t>
         </is>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>1,7</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="18" s="4">
+          <t>1,7,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="18" s="13">
       <c r="A18" t="n">
         <v>15</v>
       </c>
@@ -3256,101 +3395,101 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>2,3,</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>2,7,</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2,8</t>
+          <t>2,8,</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>2,0</t>
+          <t>2,0,</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>2,4,</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>1,5</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="14.4" r="19" s="4">
+          <t>1,5,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="19" s="13">
       <c r="A19" t="n">
         <v>16</v>
       </c>
@@ -3372,98 +3511,2659 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1,1</t>
+          <t>1,1,</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>1,4</t>
+          <t>1,4,</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,6,</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>1,11</t>
+          <t>1,11,</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>1,8,</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>1,10</t>
+          <t>1,10,</t>
         </is>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,2,</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>1,0</t>
+          <t>1,0,</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>1,12</t>
+          <t>1,12,</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1,7</t>
+          <t>1,7,</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>-2,</t>
+          <t>-2,,</t>
         </is>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>1,3</t>
+          <t>1,3,</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>1,9</t>
+          <t>1,9,</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0,</t>
+          <t>0,,</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>1,5</t>
-        </is>
+          <t>1,5,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="20" s="13">
+      <c r="A20" t="n">
+        <v>17</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>259220635010596864</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>HummingBee</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1</v>
+      </c>
+      <c r="E20" t="n">
+        <v>2</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1,2,</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1,5,</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1,1,</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>1,6,</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>1,4,</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>1,0,</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>1,9,</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>1,7,</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>1,3,</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>1,8,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="21" s="13">
+      <c r="A21" t="n">
+        <v>18</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>276541537918255105</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1</v>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1,0,</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>1,10,</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1,2,</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>1,6,</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1,1,</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>2,7,</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>1,3,</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>1,9,</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>1,4,</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>1,8,</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>2,5,</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="14.4" r="22" s="13">
+      <c r="A22" t="n">
+        <v>19</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>122885529049104385</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E22" t="n">
+        <v>2</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1,2,14/04/2020 14:24:01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2,5,14/04/2020 14:30:21</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>1,7,14/04/2020 14:53:21</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1,4,14/04/2020 14:26:21</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>1,9,14/04/2020 16:51:21</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>1,3,14/04/2020 14:24:21</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>1,1,14/04/2020 14:23:01</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>1,0,14/04/2020 14:22:01</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>1,6,14/04/2020 14:48:21</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>2,8,14/04/2020 15:03:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>20</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>198294714917584897</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Outgrid</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1,1,14/04/2020 23:46:30</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1,2,14/04/2020 23:46:50</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1,5,14/04/2020 23:47:30</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>1,0,14/04/2020 23:46:01</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1,3,14/04/2020 23:46:58</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>1,7,15/04/2020 17:40:30</t>
+        </is>
+      </c>
+      <c r="M23" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N23" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>1,4,14/04/2020 23:47:10</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>1,6,14/04/2020 23:49:30</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="S23" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T23" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>21</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>205468777339551744</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>DarkRainfire</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>22</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>126429375183847424</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ToasterB</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>2,5,19/04/2020 09:17:01</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>1,4,19/04/2020 02:44:01</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1,0,19/04/2020 00:31:01</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1,8,19/04/2020 17:58:01</t>
+        </is>
+      </c>
+      <c r="M25" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N25" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>1,3,19/04/2020 02:15:01</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>2,1,19/04/2020 01:45:01</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>1,6,19/04/2020 15:21:01</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="S25" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T25" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>1,7,19/04/2020 17:07:01</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>2,2,19/04/2020 02:14:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>23</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>458063673102172171</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Sevnet</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1,5,20/04/2020 10:40:45</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>2,7,20/04/2020 14:37:45</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1,3,20/04/2020 10:38:45</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1,4,20/04/2020 10:39:45</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>2,6,20/04/2020 12:07:45</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>2,1,20/04/2020 10:38:15</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>1,2,20/04/2020 10:38:30</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>2,0,20/04/2020 10:38:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>24</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>226145506730967051</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Mentalist</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1,2,21/04/2020 14:32:15</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1,5,21/04/2020 14:58:18</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2,1,21/04/2020 14:30:15</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1,6,21/04/2020 15:38:26</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>1,4,21/04/2020 14:36:15</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>2,7,21/04/2020 15:45:51</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>2,0,21/04/2020 14:29:15</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>2,3,21/04/2020 14:34:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>25</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>254489242263093248</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Lipton</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>1</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1,3,22/04/2020 15:22:22</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>1,9,22/04/2020 18:25:28</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1,1,22/04/2020 15:19:23</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1,8,22/04/2020 17:47:54</t>
+        </is>
+      </c>
+      <c r="M28" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N28" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>1,7,22/04/2020 15:52:13</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>1,0,22/04/2020 15:19:18</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>1,6,22/04/2020 15:51:53</t>
+        </is>
+      </c>
+      <c r="R28" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S28" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T28" s="16" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>1,2,22/04/2020 15:20:37</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>1,5,22/04/2020 15:51:10</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>1,4,22/04/2020 15:34:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>26</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>280617649300570123</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Thunderbird</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>27</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>115900946722193409</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Sheepish</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>28</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>162427580031434752</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>King Platapus</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1,2,25/04/2020 16:52:03</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1,3,25/04/2020 16:52:07</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>1,11,26/04/2020 10:04:00</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>1,10,26/04/2020 00:33:22</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1,0,25/04/2020 16:51:46</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1,7,25/04/2020 17:55:18</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>1,1,25/04/2020 16:51:58</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>2,4,25/04/2020 16:55:00</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>1,5,25/04/2020 17:51:42</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>1,6,25/04/2020 17:54:14</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>1,9,25/04/2020 23:39:35</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>2,8,25/04/2020 19:31:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>29</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>170430609716543490</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Melo</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1,7,27/04/2020 22:10:20</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1,0,27/04/2020 10:23:29</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>1,6,27/04/2020 16:01:31</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1,2,27/04/2020 11:17:40</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1,3,27/04/2020 11:48:36</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>1,4,27/04/2020 13:07:46</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>1,5,27/04/2020 14:08:05</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>1,1,27/04/2020 10:55:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>30</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>259220635010596864</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>HummingBee</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1,6,29/04/2020 10:55:18</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1,3,29/04/2020 10:55:15</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>1,5,29/04/2020 10:55:17</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1,4,29/04/2020 10:55:16</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1,2,29/04/2020 10:55:14</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>1,1,29/04/2020 10:55:13</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>1,0,29/04/2020 10:55:12</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>276541537918255105</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Kiwi</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>4</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>32</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>122885529049104385</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1,2,01/05/2020 10:55:14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>2,4,01/05/2020 10:55:16</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>1,6,01/05/2020 10:55:18</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>1,8,01/05/2020 10:55:20</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1,0,01/05/2020 10:55:12</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1,7,01/05/2020 10:55:19</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>1,1,01/05/2020 10:55:13</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>1,3,01/05/2020 10:55:15</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>2,5,01/05/2020 10:55:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>33</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>198294714917584897</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Outgrid</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>4</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>205468777339551744</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DarkRainfire</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>1</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2,4,03/05/2020 10:55:16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>2,0,03/05/2020 10:55:12</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>1,3,03/05/2020 10:55:15</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1,2,03/05/2020 10:55:14</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>2,5,03/05/2020 10:55:17</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="X37" t="inlineStr">
+        <is>
+          <t>2,1,03/05/2020 10:55:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>126429375183847424</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ToasterB</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>4</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>36</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>458063673102172171</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Sevnet</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1</v>
+      </c>
+      <c r="E39" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1,7,05/05/2020 10:55:19</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1,4,05/05/2020 10:55:16</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1,5,05/05/2020 10:55:17</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1,6,05/05/2020 10:55:18</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1,0,05/05/2020 10:55:12</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>1,2,05/05/2020 10:55:14</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>1,1,05/05/2020 10:55:13</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>1,3,05/05/2020 10:55:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>37</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>226145506730967051</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Mentalist</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>254489242263093248</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Lipton</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>39</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>280617649300570123</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Thunderbird</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>40</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>115900946722193409</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Sheepish</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>41</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>162427580031434752</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>King Platapus</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>259220635010596864</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>HummingBee</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>43</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>122885529049104385</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2,1,21/05/2020 00:41:36</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1,0,21/05/2020 00:34:17</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>-2,,</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>0,,</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>44</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>198294714917584897</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Outgrid</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>45</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>205468777339551744</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>DarkRainfire</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>46</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>126429375183847424</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ToasterB</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>47</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>458063673102172171</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Sevnet</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>48</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>226145506730967051</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Mentalist</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>49</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>254489242263093248</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Lipton</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>50</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>280617649300570123</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Thunderbird</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>51</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>115900946722193409</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Sheepish</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>162427580031434752</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>King Platapus</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>53</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>170430609716543490</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Melo</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>54</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>259220635010596864</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>HummingBee</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>55</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>122885529049104385</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>56</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>198294714917584897</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Outgrid</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>57</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>205468777339551744</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>DarkRainfire</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>126429375183847424</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ToasterB</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>59</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>458063673102172171</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Sevnet</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>60</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>226145506730967051</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Mentalist</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>61</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>254489242263093248</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Lipton</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>62</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>280617649300570123</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Thunderbird</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>63</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>115900946722193409</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Sheepish</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>64</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>162427580031434752</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>King Platapus</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>65</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>170430609716543490</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Melo</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>66</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>259220635010596864</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>HummingBee</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>67</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>122885529049104385</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Rice</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -3478,19 +6178,20 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15.6" outlineLevelCol="0"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="14.88671875"/>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="1" width="14.88671875"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="13" width="18.109375"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Player Number</t>
         </is>
@@ -3500,27 +6201,27 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="inlineStr">
+      <c r="A3" s="1" t="inlineStr">
         <is>
           <t>Turn</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="inlineStr">
+      <c r="A4" s="1" t="inlineStr">
         <is>
           <t>Global Turn</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="inlineStr">
+      <c r="A5" s="1" t="inlineStr">
         <is>
           <t>State</t>
         </is>
@@ -3530,7 +6231,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="2" t="inlineStr">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>First Vote</t>
         </is>
@@ -3540,22 +6241,22 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="2" t="inlineStr">
+      <c r="A8" s="1" t="inlineStr">
         <is>
           <t>Last Vote</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="2" t="inlineStr">
+      <c r="A9" s="1" t="inlineStr">
         <is>
           <t>Votenumber</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="14.4" r="10" s="4"/>
+    <row customHeight="1" ht="14.4" r="10" s="13"/>
     <row r="11">
-      <c r="A11" s="2" t="inlineStr">
+      <c r="A11" s="1" t="inlineStr">
         <is>
           <t>Proposal Time</t>
         </is>
@@ -3565,7 +6266,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
+      <c r="A12" s="1" t="inlineStr">
         <is>
           <t>Voting Time</t>
         </is>
@@ -3575,7 +6276,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Yes Proportion</t>
         </is>
@@ -3587,7 +6288,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>Timeout Proportion</t>
         </is>
@@ -3599,7 +6300,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>Timeout Minimum</t>
         </is>
@@ -3611,7 +6312,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>Transmute</t>
         </is>
@@ -3621,31 +6322,76 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>TimerEnd</t>
         </is>
       </c>
-      <c r="B17" s="12" t="n">
-        <v>43931.82445956271</v>
+      <c r="B17" s="15" t="n">
+        <v>44000.4361705464</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="2" t="inlineStr">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>Ready</t>
         </is>
       </c>
-      <c r="B18" s="12" t="b">
+      <c r="B18" s="15" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="2" t="inlineStr">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>SummaryMsgID</t>
         </is>
       </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Rolled</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Roulette State</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Roulette Timer</t>
+        </is>
+      </c>
+      <c r="B24" s="15" t="n">
+        <v>43964.48058318274</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Roulette Chamber</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>RouletteMsg</t>
+        </is>
+      </c>
+      <c r="B26" s="16" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -3660,57 +6406,60 @@
   </sheetPr>
   <dimension ref="A1:B42"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="O49" sqref="O49"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="18" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" style="4" width="62.77734375"/>
+    <col customWidth="1" max="1" min="1" style="10" width="8.88671875"/>
+    <col customWidth="1" max="2" min="2" style="13" width="82.6640625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="54" r="1" s="4" thickBot="1">
-      <c r="A1" s="6" t="n">
+    <row customHeight="1" ht="27.6" r="1" s="13" thickBot="1">
+      <c r="A1" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>Title: Following Rules
-All players must always abide by all rules in effect. The rules in the Initial Set are in effect when the game begins. The Initial Set consists of rules 101-119 (immutable) and 201-212 (mutable).</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="80.40000000000001" r="2" s="4" thickBot="1">
-      <c r="A2" s="6" t="n">
+All players must always abide by all rules in effect.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.2" r="2" s="13" thickBot="1">
+      <c r="A2" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="B2" s="9" t="inlineStr">
+      <c r="B2" s="4" t="inlineStr">
         <is>
           <t>Title: (Im)mutable Rules
 Initially, rules in the 100's are immutable and rules in the 200's are mutable. Rules subsequently enacted or transmuted (ie, changed from immutable to mutable or vice versa) may be immutable or mutable regardless of their numbers, and rules in the Initial Set may be transmuted regardless of their numbers.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="106.8" r="3" s="4" thickBot="1">
-      <c r="A3" s="6" t="n">
+    <row customHeight="1" ht="120" r="3" s="13" thickBot="1">
+      <c r="A3" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="B3" s="9" t="inlineStr">
+      <c r="B3" s="4" t="inlineStr">
         <is>
           <t>Definition: Rule Change
 A rule change is any of the following:
 1. The enactment, repeal, or amendment of a mutable rule
-2. The enactment, repeal, or amendment of an amendment
-3. The transmutation of an immutable rule into a mutable rule, or vice versa
-A proposed rule change should contain the exact wording of the rule that will be used should the proposed rule change pass, and usually a more detailed explaination of what is changing and why.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="4" s="4" thickBot="1">
-      <c r="A4" s="6" t="n">
+2. The transmutation of an immutable rule into a mutable rule, or vice versa
+An enactment is the creation of a new rule
+An amendment is the alteration of an existing rule to something else
+A repeal is the removal of a rule
+Enactments and amendments should specify either the title or definition of the rule.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="4" s="13" thickBot="1">
+      <c r="A4" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="B4" s="9" t="inlineStr">
+      <c r="B4" s="4" t="inlineStr">
         <is>
           <t>Definition: Player
 Someone is a player if they have the @player role.
@@ -3719,25 +6468,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="93.59999999999999" r="5" s="4" thickBot="1">
-      <c r="A5" s="6" t="n">
-        <v>105</v>
-      </c>
-      <c r="B5" s="9" t="inlineStr">
-        <is>
-          <t>Definition: Current/Next Player
-The current player has the @current-player role.
-This role is only used to indicate which player's turn it is, and has no other purpose.
-During the waiting phase, instead the @next-player role.
-It is similarly only used to indicate which player is next, and has no other purpose.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="6" s="4" thickBot="1">
-      <c r="A6" s="6" t="n">
+    <row customHeight="1" ht="54" r="5" s="13" thickBot="1">
+      <c r="A5" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="B6" s="9" t="inlineStr">
+      <c r="B5" s="4" t="inlineStr">
         <is>
           <t>Definition: Historian
 Someone is a historian if they have the @historian role.
@@ -3745,248 +6480,224 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="67.2" r="7" s="4" thickBot="1">
-      <c r="A7" s="6" t="n">
-        <v>107</v>
-      </c>
-      <c r="B7" s="9" t="inlineStr">
-        <is>
-          <t>Title: Voting
-All rule changes proposed in the proper way shall be voted on. They will be adopted if and only if they receive the required number of votes.
-If not every player votes, non-votes are not considered when calculating the total percentage of yes vs no votes.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.8" r="8" s="4" thickBot="1">
-      <c r="A8" s="6" t="n">
+    <row customHeight="1" ht="54" r="6" s="13" thickBot="1">
+      <c r="A6" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="B8" s="9" t="inlineStr">
+      <c r="B6" s="4" t="inlineStr">
         <is>
           <t>Title: Voting 2
-Any rule change must be posted in #voting before it is voted on. If adopted, it must guide play in the form in which it was voted on.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="9" s="4" thickBot="1">
-      <c r="A9" s="6" t="n">
+Any proposal must be posted in #voting before it is voted on. If adopted, each rule change must guide play in the form in which it was voted on, except for proposed-rule numbers within the rule text, which are converted to the equivalent rank-order numbers.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.8" r="7" s="13" thickBot="1">
+      <c r="A7" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="B9" s="9" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Title: Rule Change Adoption
 No rule change may take effect earlier than the moment of the completion of the vote that adopted it, even if its wording explicitly states otherwise. No rule change may have retroactive application.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="136.8" r="10" s="4" thickBot="1">
-      <c r="A10" s="6" t="n">
+    <row customHeight="1" ht="186" r="8" s="13" thickBot="1">
+      <c r="A8" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="B10" s="9" t="inlineStr">
+      <c r="B8" s="4" t="inlineStr">
         <is>
           <t>Title: Rule Numbering
-Each proposed rule change shall be given a rank-order number (ordinal number) for reference. The numbers shall begin with 301, and each rule change proposed in the proper way shall receive the next successive integer, whether or not the proposal is adopted.
-If a rule is repealed and then re-enacted, it receives the ordinal number of the proposal to re-enact it. If a rule is amended or transmuted, it receives the ordinal number of the proposal to amend or transmute it. If an amendment is amended or repealed, the entire rule of which it is a part receives the ordinal number of the proposal to amend or repeal the amendment.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.8" r="11" s="4" thickBot="1">
-      <c r="A11" s="6" t="n">
+Each rule change in a proposal shall be given a proposed-rule number for reference. This number is equal to X.Y, where X is the proposal number and Y is the order in which the rule change appears within the proposal.
+In addition, each enactment from successful proposals shall also receive a rank-order number. These numbers shall begin with 301, and each successful enactment shall receive the next successive integer.
+Amendments or transmutations retain the same rank-order number as the rule they are amending/transmuting.
+The repeal of a rule removes it's rank-order number
+Rules may be referenced by either their proposed-rule number or their rank-order number.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.2" r="9" s="13" thickBot="1">
+      <c r="A9" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="B11" s="9" t="inlineStr">
+      <c r="B9" s="4" t="inlineStr">
         <is>
           <t>Title: Transmutation
-Rule changes that transmute immutable rules into mutable rules may be adopted if and only if the vote is unanimous among the eligible voters.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="93.59999999999999" r="12" s="4" thickBot="1">
-      <c r="A12" s="6" t="n">
+A proposal that includes a transmutation of an immutable rule to a mutable rule is adopted if and only if at least 85% of all eligible voters vote to pass it. In the case where too few players have voted to reach a conclusive result, and the voting phase has ended, the rule change is still adopted if and only if at least 85% of all votes made towards the proposal were to pass it</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.2" r="10" s="13" thickBot="1">
+      <c r="A10" s="2" t="n">
         <v>112</v>
       </c>
-      <c r="B12" s="9" t="inlineStr">
+      <c r="B10" s="4" t="inlineStr">
         <is>
           <t>Title: Rule Conflicts
 Mutable rules that are inconsistent in any way with some immutable rule (except by proposing to transmute it) are wholly void and without effect. They do not implicitly transmute immutable rules into mutable rules and at the same time amend them. Rule changes that transmute immutable rules into mutable rules will be effective if and only if they explicitly state their transmuting effect.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="80.40000000000001" r="13" s="4" thickBot="1">
-      <c r="A13" s="6" t="n">
-        <v>113</v>
-      </c>
-      <c r="B13" s="9" t="inlineStr">
-        <is>
-          <t>Title: Win Condition
-The state of affairs that constitutes winning may not be changed from achieving N points to any other state of affairs. However, the magnitude of N and the means of earning points may be changed, and rules that establish a winner when play cannot continue may be enacted and (while they are mutable) be amended or repealed.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.8" r="14" s="4" thickBot="1">
-      <c r="A14" s="6" t="n">
+    <row customHeight="1" ht="40.8" r="11" s="13" thickBot="1">
+      <c r="A11" s="2" t="n">
         <v>114</v>
       </c>
-      <c r="B14" s="9" t="inlineStr">
+      <c r="B11" s="4" t="inlineStr">
         <is>
           <t>Title: Adoption Possibility
 There must always be at least one mutable rule. The adoption of rule changes must never become completely impermissible.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="80.40000000000001" r="15" s="4" thickBot="1">
-      <c r="A15" s="6" t="n">
+    <row customHeight="1" ht="67.2" r="12" s="13" thickBot="1">
+      <c r="A12" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="B15" s="9" t="inlineStr">
+      <c r="B12" s="4" t="inlineStr">
         <is>
           <t>Title: Rule Ristrictions
-Rules changes that affect rules needed to allow or apply rule changes are as permissible as other rule changes. Even rule changes that amend or repeal their own authority are permissible. No rule change or type of move is impermissible solely on account of the self-reference or self-application of a rule.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="16" s="4" thickBot="1">
-      <c r="A16" s="6" t="n">
+Rule changes that affect rules needed to allow or apply rule changes are as permissible as other rule changes. Even rule changes that amend or repeal their own authority are permissible. No rule change or type of move is impermissible solely on account of the self-reference or self-application of a rule.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="54" r="13" s="13" thickBot="1">
+      <c r="A13" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="B16" s="9" t="inlineStr">
+      <c r="B13" s="4" t="inlineStr">
         <is>
           <t>Title: Allowed Actions
 Whatever is not explicitly prohibited or regulated by a rule is permitted and unregulated, with the sole exception of changing the rules, which is permitted only when a rule or set of rules explicitly or implicitly permits it.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="93.59999999999999" r="17" s="4" thickBot="1">
-      <c r="A17" s="7" t="n">
+    <row customHeight="1" ht="80.40000000000001" r="14" s="13" thickBot="1">
+      <c r="A14" s="2" t="n">
         <v>117</v>
       </c>
-      <c r="B17" s="9" t="inlineStr">
+      <c r="B14" s="4" t="inlineStr">
         <is>
           <t>Title: Symbols
 When being referred to by other rules:
-#X refers to a text channel in the discord server
+#X refers to a text channel in the discord server, if X contains any non-numerical characters
 @X refers to a role in the discord server
 ~X refers to a bot command in the discord server
-IR #XYZ refers to an immutable rule
-MR #XYZ refers to a mutable rule</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="133.2" r="18" s="4" thickBot="1">
-      <c r="A18" s="7" t="n">
+#X / #X.Y refer to the rank-order and proposed-rule numbers of rules, respectively</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.8" r="15" s="13" thickBot="1">
+      <c r="A15" s="2" t="n">
         <v>118</v>
       </c>
-      <c r="B18" s="9" t="inlineStr">
-        <is>
-          <t>Title: Initial Bot Commands
-~join: Enters a non-player into the game, inserting them into a random place in the turn order. Called in #bot-commands
-~ready: Begins the next turn. Called by an @historian in #bot-commands
-~propose: Begins the voting process after posting the next proposal. Called by the current player in #voting during the proposal phase
-~yes: Votes for the current proposal. Called by players in #voting during the voting phase
-~no: Votes against the current proposal. Called by players in #voting during the voting phas</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="54" r="19" s="4" thickBot="1">
-      <c r="A19" s="6" t="n">
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>Title: Bot Commands
+The list of bot commands are given in #bot-updates, and include what the command does and who, where, and when it can be called</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.8" r="16" s="13" thickBot="1">
+      <c r="A16" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="B19" s="9" t="inlineStr">
+      <c r="B16" s="4" t="inlineStr">
         <is>
           <t>Title: Forfeiture
 A player always has the option to forfeit the game rather than continue to play or incur a game penalty. No penalty worse than losing, in the judgement of the player to incur it, may be imposed.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="20" s="4" thickBot="1">
-      <c r="A20" s="6" t="n">
+    <row customHeight="1" ht="27.6" r="17" s="13" thickBot="1">
+      <c r="A17" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>Title: Point gain
 Points may only be gained or lost when another rule explicitly states so.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="80.40000000000001" r="21" s="4" thickBot="1">
-      <c r="A21" s="6" t="n">
+    <row customHeight="1" ht="67.2" r="18" s="13" thickBot="1">
+      <c r="A18" s="2" t="n">
         <v>121</v>
       </c>
-      <c r="B21" s="8" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>Title: Kicking players
 If a player thinks that another player is taking actions to actively make the game less fun for the rest of the players, they may call a vote at any time with a description of what the offending player has done. If at least 90% of players, excluding the offending player, vote to kick the offending player, then they are removed from the game and may not re-join</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="93.59999999999999" r="22" s="4" thickBot="1">
-      <c r="A22" s="6" t="n">
+    <row customHeight="1" ht="54" r="19" s="13" thickBot="1">
+      <c r="A19" s="2" t="n">
+        <v>306</v>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>Definition: Proposals
+A proposal consists of one or more rule changes. 
+Proposals are given a proposal number for reference, and optionally a title. Each new proposal receives the next successive integer for it's proposal number.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="70.2" r="20" s="13" thickBot="1">
+      <c r="A20" s="2" t="n">
         <v>201</v>
       </c>
-      <c r="B22" s="9" t="inlineStr">
+      <c r="B20" s="4" t="inlineStr">
         <is>
           <t>Title: Turn Order
 Turn order is determined by a randomizer before the start of the game. A non-player may request to join the game by asking the historian, who will insert them into a random spot in the turn order. If a player leaves the discord server, they are no longer considered a player, but may join again later in the same spot in the turn order with the same number of points. All players begin with zero points.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="186" r="23" s="4" thickBot="1">
-      <c r="A23" s="6" t="n">
+    <row customHeight="1" ht="172.8" r="21" s="13" thickBot="1">
+      <c r="A21" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="B23" s="9" t="inlineStr">
-        <is>
-          <t>Definition: Turn Order
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Definition: Turn Order
 One turn consists of two parts, in this order:
-1. The current player has 24 hours to propose a rule change in #proposal-discussion. Other players will discuss the proposal, and it may be modified before being posted in #voting
-2. All players have 18 hours to vote either 'yes' or 'no'. Votes are not case sensitive
-The first part of a turn will end as soon as the current player proposes a rule change in #voting. If they have posted nothing by the end of the 24 hours, then the next player's turn starts.
-The second part of a turn will end instantly once enough votes have been made to guarantee an outcome, or once every player has voted.
-A new turn will begin once an @historian posts in #turn-summary and states that the next turn has begun</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.8" r="24" s="4" thickBot="1">
-      <c r="A24" s="6" t="n">
-        <v>204</v>
-      </c>
-      <c r="B24" s="9" t="inlineStr">
-        <is>
-          <t>Title: Voting Against Proposals
-If and when rule changes can be adopted without unanimity, the players who vote against winning proposals shall receive 5 points each.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.8" r="25" s="4" thickBot="1">
-      <c r="A25" s="6" t="n">
+1. The current player has 24 hours to make and post a proposal in #voting
+2. All players have 18 hours to vote for or against the proposal
+The first part of a turn will end as soon as the current player proposes a proposal in #voting and uses the appropriate bot command. If they have posted nothing by the end of the 24 hours or use the ~pass command, then the current player's turn ends and the next player's turn starts
+The second part of a turn will end instantly once enough votes have been made to guarantee an outcome
+A new turn will begin once an @historian posts in #game-updates and states that the next turn has begun
+</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="67.2" r="22" s="13" thickBot="1">
+      <c r="A22" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>Title: Successful Proposal Requirements
+A proposal is adopted if and only if at least 75% of all eligible voters vote to pass it. In the case where too few players have voted to reach a conclusive result, and the voting phase has ended, the rule change is still adopted if and only if at least 75% of any votes made towards the proposal were to pass it.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.8" r="23" s="13" thickBot="1">
+      <c r="A23" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="B25" s="9" t="inlineStr">
+      <c r="B23" s="4" t="inlineStr">
         <is>
           <t>Title: Adoption Completion
-An adopted rule change takes full effect at the moment of the completion of the vote that adopted it.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="67.2" r="26" s="4" thickBot="1">
-      <c r="A26" s="6" t="n">
-        <v>206</v>
-      </c>
-      <c r="B26" s="9" t="inlineStr">
-        <is>
-          <t>Title: Proposal Points
-When a proposed rule change passes, the player who proposed it gains double the number of 'yes' votes as points.
-When a proposed rule change is defeated, the player who proposed it loses 10 points.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="40.8" r="27" s="4" thickBot="1">
-      <c r="A27" s="6" t="n">
+All rule changes from adopted proposals take full effect at the moment of the completion of the vote that adopted it, in the order that the rule changes appeared in the proposal</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="40.8" r="24" s="13" thickBot="1">
+      <c r="A24" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="B27" s="9" t="inlineStr">
+      <c r="B24" s="4" t="inlineStr">
         <is>
           <t>Title: Vote Number
 Each player has exactly one vote.
@@ -3994,46 +6705,35 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="28" s="4" thickBot="1">
-      <c r="A28" s="6" t="n">
+    <row customHeight="1" ht="27.6" r="25" s="13" thickBot="1">
+      <c r="A25" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="B28" s="9" t="inlineStr">
+      <c r="B25" s="4" t="inlineStr">
         <is>
           <t>Definition: Winner
 The winner is the first person to achieve 200 (positive) points.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="27.6" r="29" s="4" thickBot="1">
-      <c r="A29" s="6" t="n">
-        <v>209</v>
-      </c>
-      <c r="B29" s="9" t="inlineStr">
-        <is>
-          <t>Title: Maximum Rule Number
-At no time may there be more than 25 mutable rules.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="133.2" r="30" s="4" thickBot="1">
-      <c r="A30" s="6" t="n">
+    <row customHeight="1" ht="120" r="26" s="13" thickBot="1">
+      <c r="A26" s="2" t="n">
         <v>210</v>
       </c>
-      <c r="B30" s="9" t="inlineStr">
-        <is>
-          <t>Title: Overiding
-If two or more mutable rules conflict with one another, or if two or more immutable rules conflict with one another, then the rule with the lowest ordinal number takes precedence.
-If at least one of the rules in conflict explicitly says of itself that it defers to another rule (or type or rule) or takes precedence over another rule (or type of rule), then such provisions shall supersede the numerical method for determining precedence.
-If two or more rules claim to take precedence over one another or to defer to one another, then the numerical method must again govern.</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="304.8" r="31" s="4" thickBot="1">
-      <c r="A31" s="6" t="n">
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>Title: Overriding
+If two or more mutable rules conflict with one another, or if two or more immutable rules conflict with one another, then the rule with the lowest rank-order takes precedence
+If at least one of the rules in conflict explicitly says of itself that it defers to another rule (or type of rule) or takes precedence over another rule (or type of rule), then such provisions shall supersede the numerical method for determining precedence
+If two or more rules claim to take precedence over one another or to defer to one another, then the numerical method must again govern</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="238.8" r="27" s="13" thickBot="1">
+      <c r="A27" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="B31" s="9" t="inlineStr">
+      <c r="B27" s="4" t="inlineStr">
         <is>
           <t>Title: Judgement
 If players disagree about the legality of a move or the interpretation or application of a rule, then the player preceding the one moving is to be the Judge and to decide the question. Disagreement, for the purposes of this rule, may be created by the insistence of any player. Such a process is called invoking judgement.
@@ -4044,11 +6744,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="80.40000000000001" r="32" s="4" thickBot="1">
-      <c r="A32" s="6" t="n">
+    <row customHeight="1" ht="67.2" r="28" s="13" thickBot="1">
+      <c r="A28" s="2" t="n">
         <v>212</v>
       </c>
-      <c r="B32" s="9" t="inlineStr">
+      <c r="B28" s="4" t="inlineStr">
         <is>
           <t>Title: Stalemate
 If the rules are changed so that further play is impossible, or if the legality of a move is impossible to determine with finality, or if by the Judge's best reasoning, not overruled, a move appears equally legal and illegal, then the first player who is unable to complete a turn is the winner.
@@ -4056,22 +6756,11 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="80.40000000000001" r="33" s="4" thickBot="1">
-      <c r="A33" s="6" t="n">
-        <v>303</v>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Title: Successful Proposal Requirements
-During the voting phase, a rule change is adopted if and only if at least 75% of all eligible voters vote to pass it. In the case where too few players have voted to reach a conclusive result, and the voting phase has ended, the rule change is still adopted if and only if at least 75% of any votes made towards the proposal were to pass it (a "yes" vote.)</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="409.6" r="34" s="4">
-      <c r="A34" s="14" t="n">
-        <v>304</v>
-      </c>
-      <c r="B34" s="10" t="inlineStr">
+    <row customHeight="1" ht="384" r="29" s="13" thickBot="1">
+      <c r="A29" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
         <is>
           <t>Title: Owoified Peter
 A player with the @bulgiewulgie role is required to replace a minimum of 75% of their usage of the letters "l" and "r" with the letter "w" (regardless of case) in all messages sent by that player whilst they have the role unless any of the following criteria apply:
@@ -4084,49 +6773,254 @@
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="198.6" r="35" s="4">
-      <c r="A35" s="14" t="n">
-        <v>306</v>
-      </c>
-      <c r="B35" s="11" t="inlineStr">
+    <row customHeight="1" ht="148.8" r="30" s="13" thickBot="1">
+      <c r="A30" s="2" t="n">
+        <v>302</v>
+      </c>
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>Title: Inactivity
 If any player has failed to vote in 3 consecutive proposals AND at least 72 hours have passed since the player last posted a message to the discord server (in any channel), their @player role must be removed and replaced by the @inactiveplayer role by the historian. Any player may voluntarily remove their @player role and replace it with the @inactiveplayer role by using the ~cryosleep command in the #bot-commands channel. Anyone with the @inactiveplayer role retains their slot in the turn order, but if the turn would be passed to them they are skipped and the turn is passed to the player immediately following them in the turn order. Anyone with the @inactiveplayer role may use the ~resurrect command in the #bot-commands channel to replace their @inactiveplayer role with an @player role at any time. Any other action taken by anyone with the @inactiveplayer role is wholly null and void. Anyone with the @inactiveplayer role must comply with this rule.</t>
         </is>
       </c>
     </row>
-    <row customHeight="1" ht="93" r="36" s="4">
-      <c r="A36" s="14" t="n">
+    <row customHeight="1" ht="319.8" r="31" s="13" thickBot="1">
+      <c r="A31" s="2" t="n">
+        <v>305</v>
+      </c>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>Title: Snakes and Ladders
+The channel #snakes-and-ladders must be created. The purpose of this channel is to facilitate a game named Snakes and Ladders. The starting Board to be adopted by the game is found here: https://imgur.com/a/6Sd3jW2
+Upon enactment of this proposal, every person who currently has the @Player role in the Nomic server, and every person who subsequently receives the @Player role for the first time, must have a token representing them placed on tile 1.
+Tokens will advance the same number of tiles on the Board as the number of ‘~yes’ votes minus the number of ‘~no’ votes that the corresponding Player receives for their proposal. If this number is negative, the token remains on the same tile. It is irrelevant whether a Player’s proposal fails or succeeds.
+Advancement is defined as a token moving a number of tile(s) in an ascending order from 1 - 100. If a token would ever move a number of spaces greater than the difference between 100 and its current tile number, the token instead moves to tile 100. If a token lands on a tile that is at the bottom of a ladder, the token will move up to the tile at the top of that same ladder. If a token lands on a tile that is at a snake’s head, the token will move down to the tile at the end of that same snake’s tail.
+At the end of every turn, the Board must be updated in #snakes-and-ladders. The first token to land on tile 100 ends the Snakes and Ladders game. That token’s corresponding Player must immediately receive 50 points. When the game ends, #snakes-and-ladders must be archived and no further updates will be posted.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="321" r="32" s="13" thickBot="1">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>Title: Rule Pool
+Two new channels are created, #rule-pool and #rule-pool-queue
+A pool is created which holds rule changes. Each player may add a single rule change at a time to #rule-pool-queue using ~pool in #rule-crafting. A player with the @Current Player role or with two rules in #rule-pool-queue and #rule-pool combined, may not add a rule to the pool. The bot will post this to #rule-pool-queue. At the start of each turn, the bot will post all rules in #rule-pool-queue to #rule-pool in the order the rules were posted, numbering each as an integer, and giving each new rule added to the pool the number n+1, where n is the number of rules previously posted in #rule-pool, and then clearing #rule-pool-queue. Each player may have up to 2 rule changes created by them in the pool. A rule that is added to #rule-pool-queue must not amend, repeal, or override this rule.
+A rule is removed from #rule-pool-queue or #rule-pool if at least 35% of players (rounded down) react to the bot's message containing the rule change with 🛑, or if the player who added the rule reacts in the same way. Players may react to a rule in #rule-pool with 🔼, which will increase the chance of a rule being randomly selected by the bot for each player who has reacted in this way.
+During the proposal phase, the current player may, before proposing, either use ~roll to cause the bot to randomly select one of the rule changes in the #rule-pool, or use ~rule #X to select the rule from the pool with the corresponding number. If either option is used, the current player must make a proposal with the selected rule as the only rule change, removing it from #rule-pool, or use ~pass within 10 min. if neither option is used, the players turn will end. the odds of any rule being selected will be (1+u)/(r+n), where u is the number of :arrow_up_small: on the rule, r is the number of rules in #rule-pool, and n is the total number of :arrow_small_up: reactions in the #rule-pool channel.</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="265.2" r="33" s="13" thickBot="1">
+      <c r="A33" s="2" t="n">
         <v>309</v>
       </c>
-      <c r="B36" s="16" t="inlineStr">
-        <is>
-          <t>Title: Democracy
-This rule takes precedence over rules 204 and 206. 
-Points cannot be gained as a result of:
-1. Making proposals
-2. Having your proposals succeed or fail
-3. Voting yes or no on proposals</t>
-        </is>
-      </c>
+      <c r="B33" s="11" t="inlineStr">
+        <is>
+          <t>Title: Bruh
+The bot command "~bruh" is added to the list of available bot commands.
+Whenever any user posts the "~bruh" command in any channel, Aria's bot immediately replies to that user with "bruh".
+We define Aria's bot as the sole Discord bot that is responsible for maintaining the Nomic game, named as @Aria's Lame Bot#1999 at the time of this rule's inception.
+Whenever any user sends a message that contains "Bruh", "bruh", or any variation thereof comprised of any combination of uppercase or lowercase letters, @Aria's Lame Bot#1999 immediately reacts four separate times with :regional_indicator_b:, :regional_indicator_r:, :regional_indicator_u:, and :regional_indicator_h:, in order, to spell out the word "BRUH" in reacts.
+We define "any combination of uppercase or lowercase letters" as any message that contains a string made up of letters from the English alphabet, recognisable as some form of the word "bruh".
+At the end of every round, either the current historian or Aria's bot must create a summary, referred to as the Bruh Summary, which lists all users in the Discord server that this Nomic game is being hosted on, as well as how many times those users have either used the "~bruh" command or posted the singular word "bruh" (or any variation thereof.)</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="277.8" r="34" s="13">
+      <c r="A34" s="9" t="n">
+        <v>310</v>
+      </c>
+      <c r="B34" s="11" t="inlineStr">
+        <is>
+          <t>Title: Wryyyyyyyyyyyyyyyyyyyyyyyyyyyyyyyyy
+A proposal can be voted for by using a yes or no command within the voting phase. When either '~yes' or '~no' are quoted in any other rule, the following lists of commands are also valid to be a substitute for it as the corresponding vote command.
+A yes command includes the following, and nothing else:
+~yes
+~ja
+~ya
+~yee
+~ye
+A no command includes the following, and nothing else:
+~no
+~nay
+~nah
+~nein
+-mudamudamuda
+~mudamudamudamudamudamudamudamudamudamudamudamudamudamudamudamudamudamudamudamuda
+~wryyy</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="15" r="35" s="13">
+      <c r="A35" s="9" t="n"/>
+      <c r="B35" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="36" s="13">
+      <c r="A36" s="9" t="n"/>
+      <c r="B36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="B37" s="15" t="n"/>
+      <c r="B37" s="6" t="n"/>
     </row>
     <row r="39">
-      <c r="B39" s="15" t="n"/>
+      <c r="B39" s="6" t="n"/>
     </row>
     <row r="40">
-      <c r="B40" s="15" t="n"/>
+      <c r="B40" s="6" t="n"/>
     </row>
     <row r="41">
-      <c r="B41" s="15" t="n"/>
+      <c r="B41" s="6" t="n"/>
     </row>
     <row r="42">
-      <c r="B42" s="15" t="n"/>
+      <c r="B42" s="6" t="n"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="13" width="21.33203125"/>
+    <col bestFit="1" customWidth="1" max="4" min="3" style="13" width="19.21875"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="13" width="5.5546875"/>
+    <col customWidth="1" max="7" min="7" style="13" width="3.77734375"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="13" width="21.33203125"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="13" width="19.21875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="13" width="6"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="13" width="4.6640625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="13" width="19.21875"/>
+    <col bestFit="1" customWidth="1" max="13" min="13" style="13" width="5.5546875"/>
+    <col bestFit="1" customWidth="1" max="14" min="14" style="13" width="3"/>
+    <col bestFit="1" customWidth="1" max="16" min="16" style="13" width="11.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Queued #</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Proposer</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>msgID</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>#</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Text</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Proposer</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Active</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>Turn</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>msgID</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Pool Number</t>
+        </is>
+      </c>
+    </row>
+    <row customHeight="1" ht="28.8" r="2" s="13">
+      <c r="B2" s="8" t="n"/>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="8" t="inlineStr">
+        <is>
+          <t>Enact proposal, titled F.
+🇫</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>205468777339551744</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="16" t="inlineStr">
+        <is>
+          <t>700688727420436562</t>
+        </is>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3"/>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>